--- a/DaringDeeds/Daring Deeds Character Sheet v2.xlsx
+++ b/DaringDeeds/Daring Deeds Character Sheet v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPGs\D&amp;D\5e\GameDesignRepo\DaringDeeds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C8AFBC-6CF2-4CA2-AA88-277BCA84A564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A90EE5-DD48-4E2D-AC91-005C2C0B2022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A097D365-FC91-4133-A7F4-12ED45EA313D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A097D365-FC91-4133-A7F4-12ED45EA313D}"/>
   </bookViews>
   <sheets>
     <sheet name="Character Sheet" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>I AM</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Dodging, Sneaking, and Shooting</t>
-  </si>
-  <si>
-    <t>Magic, Figuring, and Sensing</t>
   </si>
   <si>
     <t>Healing, Feeling, and Hoping</t>
@@ -486,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,47 +531,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -584,27 +545,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -617,14 +587,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1431,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F16EEE3-5C1D-4F06-A658-3E7BE200263B}">
   <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -1446,12 +1441,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="37"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="25"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
@@ -1459,19 +1454,19 @@
     </row>
     <row r="2" spans="2:13" ht="13.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
       <c r="C2" s="6"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="J2" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="44"/>
+      <c r="E2" s="31"/>
+      <c r="J2" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="2:13" ht="24.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="26" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2"/>
@@ -1480,51 +1475,51 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="46"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
     </row>
     <row r="4" spans="2:13" ht="12.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.7">
       <c r="C4" s="17"/>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="47"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
     </row>
     <row r="5" spans="2:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="36"/>
+      <c r="B5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="24"/>
     </row>
     <row r="6" spans="2:13" ht="6.6" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -1534,27 +1529,27 @@
       <c r="B7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="J7" s="34" t="s">
+      <c r="H7" s="28"/>
+      <c r="J7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
@@ -1566,13 +1561,13 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
-      <c r="H8" s="51"/>
-      <c r="J8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="29"/>
+      <c r="H8" s="21"/>
+      <c r="J8" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="49"/>
     </row>
     <row r="9" spans="2:13" s="4" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="16"/>
@@ -1591,26 +1586,25 @@
       <c r="G9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="29"/>
+      <c r="H9" s="21"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="49"/>
     </row>
     <row r="10" spans="2:13" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="52"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="2:13" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="B11" s="11" t="s">
@@ -1621,45 +1615,42 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="52"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="29"/>
+      <c r="J11" s="47"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="49"/>
     </row>
     <row r="12" spans="2:13" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="B12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="52"/>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="49"/>
+      <c r="L12" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="29"/>
+      <c r="M12" s="49"/>
     </row>
     <row r="13" spans="2:13" s="4" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="52"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="2:13" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="B14" s="11" t="s">
@@ -1670,11 +1661,10 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="52"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="24"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="44"/>
     </row>
     <row r="15" spans="2:13" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="B15" s="11" t="s">
@@ -1685,11 +1675,10 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="52"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="44"/>
     </row>
     <row r="16" spans="2:13" s="4" customFormat="1" ht="62.4" x14ac:dyDescent="0.4">
       <c r="B16" s="11" t="s">
@@ -1700,26 +1689,24 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="52"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="24"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="44"/>
     </row>
     <row r="17" spans="2:13" s="4" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="B17" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="52"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
     </row>
     <row r="18" spans="2:13" ht="46.8" x14ac:dyDescent="0.7">
       <c r="B18" s="11" t="s">
@@ -1730,11 +1717,11 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="52"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="24"/>
+      <c r="H18" s="4"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
     </row>
     <row r="19" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B19" s="11" t="s">
@@ -1745,11 +1732,10 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="53"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
     </row>
     <row r="20" spans="2:13" ht="11.4" customHeight="1" x14ac:dyDescent="0.7"/>
     <row r="28" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -1783,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88B31CE-0184-47F1-A223-45B72A32F4AD}">
   <dimension ref="A2:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5:O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,7 +1815,7 @@
     </row>
     <row r="4" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>8</v>
@@ -1841,24 +1827,24 @@
         <v>8</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="I4" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="33"/>
+      <c r="I4" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="50"/>
       <c r="L4" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="62.4" x14ac:dyDescent="0.7">
       <c r="A5" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>12</v>
@@ -1867,25 +1853,25 @@
         <v>15</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
-      <c r="I5" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="32"/>
+      <c r="I5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="51"/>
       <c r="K5" s="1"/>
       <c r="L5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="N5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="62.4" x14ac:dyDescent="0.7">
       <c r="A6" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>13</v>
@@ -1897,25 +1883,25 @@
         <v>14</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
-      <c r="I6" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="32"/>
+      <c r="I6" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="51"/>
       <c r="K6" s="1"/>
       <c r="L6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" ht="62.4" x14ac:dyDescent="0.45">
       <c r="A7" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>13</v>
@@ -1924,25 +1910,25 @@
         <v>12</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
-      <c r="I7" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" s="32"/>
+      <c r="I7" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="51"/>
       <c r="K7" s="7"/>
       <c r="L7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="62.4" x14ac:dyDescent="0.7">
       <c r="A8" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>14</v>
@@ -1951,22 +1937,22 @@
         <v>17</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="I8" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="32"/>
+      <c r="I8" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="51"/>
       <c r="K8" s="1"/>
       <c r="L8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="62.4" x14ac:dyDescent="0.7">
       <c r="A9" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>14</v>
@@ -1975,17 +1961,17 @@
         <v>15</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
-      <c r="I9" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="32"/>
+      <c r="I9" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="51"/>
       <c r="K9" s="1"/>
       <c r="L9" s="11" t="s">
         <v>13</v>
@@ -2032,12 +2018,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
